--- a/CTFd/exports/history_soal_ctf.xlsx
+++ b/CTFd/exports/history_soal_ctf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,14 +467,377 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Reverse Enggenering</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>### Kategori: Reverse Engineering  
+Topik: JavaScript Obfuscation  
+Soal: Berikut adalah kode JavaScript yang telah diobfuscate. Tugas Anda adalah mendekode kode tersebut untuk menemukan flag yang tersembunyi. Gunakan tools seperti beautifier atau deobfuscator online untuk mempermudah proses.  
+Hint: Gunakan beautifier atau deobfuscator online untuk merapikan kode, lalu cari variabel atau fungsi yang mungkin menyimpan flag.  
+Tingkat Kesulitan: Medium  
+Nilai: 150  
+Ctf: PolinesCTF{js_reverse_ftw}  
+Penjelasan:  
+1. Kode di atas adalah kode JavaScript yang diobfuscate menggunakan teknik sederhana.  
+2. Flag disimpan dalam bentuk string yang dienkripsi dalam array `_0x3f5b`.  
+3. Gunakan tools seperti [JavaScript Beautifier](https://beautifier.io/) atau [deobfuscator.io](https://deobfuscate.io/) untuk merapikan kode dan menemukan flag yang tersembunyi.  
+4. Flag akan terlihat setelah kode di-deobfuscate.  
+Flag: `PolinesCTF{js_reverse_ftw}`</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>obfuscated.js</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>16.95808935165405</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-09 03:25:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Reverse Enggenering</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Kategori: Reverse Engineering  
+Topik: Binary ELF Analysis  
+Soal:  
+Kami menemukan sebuah binary ELF yang misterius. Binary ini mungkin menyimpan rahasia penting. Analisislah binary tersebut untuk menemukan flag yang tersembunyi. Gunakan tools seperti Ghidra atau IDA untuk mempermudah proses reverse engineering.  
+Hint:  
+1. Perhatikan string yang ada di dalam fungsi `main`.  
+2. Flag tersembunyi dalam string yang di-obfuscate.  
+Tingkat Kesulitan: Medium  
+Nilai: 150  
+Ctf: PolinesCTF{reverse_elf_is_fun}  
+File:</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>challenge_binary</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>14.62996768951416</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-09 02:51:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>18</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Reverse Enggenering</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Berikut adalah soal CTF baru dengan kategori Reverse Engineering, topik Python, dan tingkat kesulitan easy:
+---
+Kategori: Reverse Engineering  
+Topik: Python  
+Soal: Terdapat sebuah file Python yang telah dikompilasi menjadi file bytecode (.pyc). Tugasmu adalah membongkar file tersebut dan menemukan flag yang tersembunyi di dalamnya.  
+Hint: Gunakan tools seperti `uncompyle6` atau `decompyle3` untuk mendapatkan kode sumber aslinya.  
+Tingkat Kesulitan: easy  
+Nilai: 50  
+Ctf: PolinesCTF{reverse_python_easy}  
+### Penjelasan:
+1. File .pyc: File ini adalah hasil kompilasi dari kode Python. Peserta perlu menggunakan tools seperti `uncompyle6` atau `decompyle3` untuk mendapatkan kode sumber aslinya.
+2. Flag: Flag tersembunyi di dalam kode sumber yang telah didekompilasi.
+3. Tingkat Kesulitan: Easy, karena peserta hanya perlu menggunakan tools yang sudah tersedia untuk mendapatkan flag.
+### Contoh Kode Sumber Python yang Dikompilasi:
+```python
+# challenge.py
+flag = "PolinesCTF{reverse_python_easy}"
+print("Cari flag yang tersembunyi!")
+```
+File `challenge.pyc` dapat dibuat dengan menjalankan perintah berikut:
+```bash
+python -m compileall challenge.py
+```
+Selamat mencoba!</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>challenge.pyc</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>13.21505689620972</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-09 02:42:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>web</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Berikut adalah soal CTF baru dengan topik Broken Authentication:
+---
+Kategori: Web  
+Topik: Broken Authentication  
+Soal: Sebuah website memiliki sistem login yang tidak aman. Coba untuk masuk tanpa menggunakan kredensial yang valid.  
+Hint: Perhatikan bagaimana sistem menangani session setelah login.  
+Tingkat Kesulitan: Medium  
+Nilai: 150  
+Ctf: PolinesCTF{no_password_needed}  
+file:login.php---  
+```php
+&lt;?php
+session_start();
+// Simulasikan database user
+$users = [
+    "admin" =&gt; "admin123",
+    "user" =&gt; "user123"
+];
+$username = $_POST['username'];
+$password = $_POST['password'];
+if (isset($users[$username]) &amp;&amp; $users[$username] === $password) {
+    $_SESSION['logged_in'] = true;
+    $_SESSION['username'] = $username;
+    header("Location: dashboard.php");
+    exit();
+} else {
+    echo "Login failed. Please try again.";
+}
+?&gt;
+```
+---file:dashboard.php---  
+```php
+&lt;?php
+session_start();
+if (!isset($_SESSION['logged_in']) || $_SESSION['logged_in'] !== true) {
+    header("Location: index.html");
+    exit();
+}
+echo "Welcome, " . $_SESSION['username'] . "!";
+echo "&lt;br&gt;Flag: PolinesCTF{no_password_needed}";
+?&gt;
+```
+---
+### Penjelasan:
+- Soal ini menguji pemahaman peserta tentang Broken Authentication.
+- Peserta dapat mencoba untuk melewati proses login dengan cara memanipulasi session, misalnya dengan mengatur `$_SESSION['logged_in']` secara manual atau menggunakan tools seperti Burp Suite untuk mengubah request.
+- Solusi yang diharapkan adalah peserta dapat mengakses `dashboard.php` tanpa melalui proses login yang valid.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>index.html</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>23.81719541549683</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-08 17:18:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>web</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>### Kategori: Web  
+Topik: SQL Injection  
+Soal: Terdapat sebuah form login yang rentan terhadap SQL Injection. Temukan cara untuk melewati login dan dapatkan flag.  
+Hint: Gunakan teknik SQL Injection sederhana dengan karakter khusus.  
+Tingkat Kesulitan: Medium  
+Nilai: 100  
+Ctf: PolinesCTF{sqli_vulnerable}  
+file:login.php---  
+```php
+&lt;?php
+$servername = "localhost";
+$username = "root";
+$password = "";
+$dbname = "ctf_db";
+// Buat koneksi
+$conn = new mysqli($servername, $username, $password, $dbname);
+// Cek koneksi
+if ($conn-&gt;connect_error) {
+    die("Connection failed: " . $conn-&gt;connect_error);
+}
+if ($_SERVER["REQUEST_METHOD"] == "POST") {
+    $user = $_POST['username'];
+    $pass = $_POST['password'];
+    $sql = "SELECT * FROM users WHERE username='$user' AND password='$pass'";
+    $result = $conn-&gt;query($sql);
+    if ($result-&gt;num_rows &gt; 0) {
+        echo "Login successful! Flag: PolinesCTF{sqli_vulnerable}";
+    } else {
+        echo "Invalid username or password.";
+    }
+}
+$conn-&gt;close();
+?&gt;
+```
+Penjelasan:  
+Soal ini meminta peserta untuk menemukan kerentanan SQL Injection pada form login. Peserta dapat menggunakan teknik SQL Injection sederhana seperti memasukkan `' OR '1'='1` pada kolom username atau password untuk melewati login dan mendapatkan flag.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>index.html</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>22.53757476806641</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-08 17:14:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cryptography</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>### Kategori: Cryptography  
+Topik: RSA  
+Soal: Decode pesan yang dienkripsi menggunakan RSA. Diberikan modulus `n`, eksponen publik `e`, dan ciphertext `c`. Temukan pesan aslinya!  
+Hint: Faktorisasi modulus `n` untuk mendapatkan nilai `p` dan `q`, lalu hitung private key `d`.  
+Diberikan:  
+- Modulus `n`: 187  
+- Eksponen publik `e`: 7  
+- Ciphertext `c`: 11  
+Flag: PolinesCTF{pesan_rahasia}  
+Cara Penyelesaian:  
+1. Faktorisasi modulus `n = 187` menjadi `p = 11` dan `q = 17`.  
+2. Hitung nilai totient `φ(n) = (p-1)*(q-1) = 160`.  
+3. Hitung private key `d` menggunakan persamaan `d ≡ e^(-1) mod φ(n)`. Dalam kasus ini, `d = 23`.  
+4. Dekripsi ciphertext `c` menggunakan rumus `m ≡ c^d mod n`. Hasilnya adalah `m = 88`.  
+5. Konversi `m` ke karakter ASCII untuk mendapatkan pesan asli.  
+Flag: PolinesCTF{88}  
+---
+### Kategori: Cryptography  
+Topik: RSA (File-based)  
+Soal: Decode pesan yang dienkripsi menggunakan RSA. Diberikan file `rsa_data.txt` yang berisi modulus `n`, eksponen publik `e`, dan ciphertext `c`. Temukan pesan aslinya!  
+Hint: Gunakan tools seperti Python dengan library `Crypto` atau faktorkan `n` secara manual.  
+File:</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>rsa_data.txt</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>29.87540340423584</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-08 16:53:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>14</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cryptography</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Berikut adalah soal CTF Cryptography tentang Vigenère Cipher dengan tingkat kesulitan easy:
+---
+Kategori: Cryptography  
+Topik: Vigenère Cipher  
+Soal: Decode pesan berikut yang dienkripsi menggunakan Vigenère Cipher dengan kunci "CTF".  
+Ciphertext: "Rijvs Uyqvo"  
+Hint: Gunakan tools Vigenère decoder atau implementasikan sendiri algoritmanya.  
+Tingkat Kesulitan: Easy  
+Nilai: 50  
+CTF: PolinesCTF{vigenere}  
+Cara Penyelesaian:  
+1. Gunakan kunci "CTF" untuk mendekripsi ciphertext "Rijvs Uyqvo".  
+2. Proses dekripsi Vigenère Cipher dilakukan dengan menggeser setiap huruf ciphertext ke belakang sesuai dengan huruf kunci.  
+3. Hasil dekripsi akan menghasilkan teks asli "Hello World".  
+4. Flag yang didapatkan adalah `PolinesCTF{vigenere}`.  
+Penjelasan:  
+- Ciphertext "Rijvs Uyqvo" dienkripsi menggunakan kunci "CTF".  
+- Dengan mendekripsinya, kita mendapatkan pesan asli "Hello World".  
+- Flag yang harus disubmit adalah `PolinesCTF{vigenere}`.  
+---
+Semoga soal ini membantu! 😊</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>vigenere_decoder.py</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>30.21932625770569</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-08 16:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>13</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Cryptography</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Kategori: Cryptography  
 Topik: Base64 Encoding  
@@ -487,30 +850,30 @@
 Pesan di atas telah dienkripsi menggunakan Base64. Pesan aslinya adalah "PolinesCTF{base64_is_fun}". Peserta dapat menggunakan tools online atau script sederhana untuk mendecode pesan tersebut dan mendapatkan flag.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>encoded_message.txt</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="E9" t="n">
         <v>10.25811862945557</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2025-07-08 16:34:48</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="10">
+      <c r="A10" t="n">
         <v>12</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Cryptography</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Kategori: Cryptography
 Topik: AES Encryption
@@ -527,30 +890,30 @@
 - Peserta harus mendekripsi pesan tersebut untuk mendapatkan flag `PolinesCTF{AES_ECB_IS_NOT_SECURE}`.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>encrypted_message.txt</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="E10" t="n">
         <v>69.02000164985657</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2025-07-08 14:17:48</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="11">
+      <c r="A11" t="n">
         <v>11</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Cryptography</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Kategori: Cryptography  
 Topik: ROT13  
@@ -561,30 +924,30 @@
 Ctf: PolinesCTF{thisisasecretmessage}</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>file.txt</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="E11" t="n">
         <v>11.25007963180542</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2025-07-08 14:10:57</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Cryptography</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Kategori: Cryptography  
 Topik: Base64 Encoding  
@@ -600,30 +963,30 @@
 - Soal ini dirancang untuk pemula dan menguji pemahaman dasar tentang encoding Base64.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>encoded_message.txt</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="E12" t="n">
         <v>18.35346674919128</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2025-07-08 14:08:59</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="13">
+      <c r="A13" t="n">
         <v>9</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Binary Exploitation</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Kategori: Binary Exploitation  
 Topik: Buffer Overflow Dasar  
@@ -639,30 +1002,30 @@
 4. Flag akan diberikan jika peserta berhasil mendapatkan shell dan menjalankan perintah tertentu.</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>vuln.c</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="E13" t="n">
         <v>14.56910538673401</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2025-07-08 13:32:40</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="14">
+      <c r="A14" t="n">
         <v>8</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>generall skill</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Berikut adalah soal CTF baru untuk kategori General Skill dengan topik Enkripsi dan Deskripsi menggunakan Python:
 ---
@@ -696,30 +1059,30 @@
 Soal ini dirancang untuk menguji kemampuan peserta dalam menggunakan Python untuk melakukan operasi enkripsi dan deskripsi sederhana.</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>encrypted_message.txt</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="E14" t="n">
         <v>45.00128841400146</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>2025-07-08 13:25:03</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="15">
+      <c r="A15" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>generall skill</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Berikut adalah soal CTF baru sesuai dengan format yang Anda minta:
 ---
@@ -739,30 +1102,30 @@
 Soal ini dirancang untuk menguji pemahaman peserta tentang pengelolaan hak akses file di Linux.</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>file.txt</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="E15" t="n">
         <v>36.82613921165466</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2025-07-08 13:13:31</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="16">
+      <c r="A16" t="n">
         <v>6</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>generall skill</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Kategori: General Skill  
 Topik: File Analysis  
@@ -774,30 +1137,30 @@
 *Catatan: Peserta perlu menganalisis file `file.txt` untuk menemukan flag yang tersembunyi.*</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>file.txt</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="E16" t="n">
         <v>33.24996542930603</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2025-07-08 12:50:46</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="17">
+      <c r="A17" t="n">
         <v>5</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>generall skill</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Kategori: General Skill  
 Topik: File Analysis  
@@ -808,30 +1171,30 @@
 Ctf: PolinesCTF{hidden_word}</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>file.txt</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="E17" t="n">
         <v>25.09732508659363</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2025-07-08 12:22:58</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="18">
+      <c r="A18" t="n">
         <v>4</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>generall skill</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Kategori: General Skill
 Topik: Base64 Decoding
@@ -848,26 +1211,26 @@
 ---</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
         <v>14.77651047706604</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>2025-07-08 12:21:29</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="19">
+      <c r="A19" t="n">
         <v>3</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>generall skill</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Kategori: Forensik  
 Topik: Steganografi Gambar  
@@ -887,30 +1250,30 @@
 Peserta harus menggunakan tools steganografi untuk mengekstrak pesan yang tersembunyi dan menemukan flag.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>image.jpg</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="E19" t="n">
         <v>10.12639093399048</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>2025-06-27 11:16:29</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="20">
+      <c r="A20" t="n">
         <v>2</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>generall skill</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Kategori: General Skill  
 Topik: File Analysis  
@@ -921,30 +1284,30 @@
 Ctf: PolinesCTF{hidden_flag_123}</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>file.txt</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="E20" t="n">
         <v>5.255779504776001</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>2025-06-27 09:59:07</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="21">
+      <c r="A21" t="n">
         <v>1</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>web</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Kategori: general skill  
 Topik: File Identification  
@@ -955,13 +1318,13 @@
 Ctf: PolinesCTF{file_magic}</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>mystery.txt</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
         <is>
           <t>2025-06-27 09:46:30</t>
         </is>
